--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H2">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>2.698804844030681</v>
+        <v>3.912419564766001</v>
       </c>
       <c r="R2">
-        <v>2.698804844030681</v>
+        <v>35.211776082894</v>
       </c>
       <c r="S2">
-        <v>0.001853615508430251</v>
+        <v>0.002381962113509228</v>
       </c>
       <c r="T2">
-        <v>0.001853615508430251</v>
+        <v>0.002381962113509228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H3">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>225.7412961465478</v>
+        <v>257.1361822533364</v>
       </c>
       <c r="R3">
-        <v>225.7412961465478</v>
+        <v>2314.225640280028</v>
       </c>
       <c r="S3">
-        <v>0.1550455077757486</v>
+        <v>0.1565498367444351</v>
       </c>
       <c r="T3">
-        <v>0.1550455077757486</v>
+        <v>0.1565498367444351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H4">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.832581595589568</v>
+        <v>1.305194540233667</v>
       </c>
       <c r="R4">
-        <v>0.832581595589568</v>
+        <v>11.746750862103</v>
       </c>
       <c r="S4">
-        <v>0.0005718405912276043</v>
+        <v>0.0007946294854451871</v>
       </c>
       <c r="T4">
-        <v>0.0005718405912276043</v>
+        <v>0.0007946294854451871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H5">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>2.06786279687792</v>
+        <v>2.453784178632</v>
       </c>
       <c r="R5">
-        <v>2.06786279687792</v>
+        <v>22.084057607688</v>
       </c>
       <c r="S5">
-        <v>0.001420266662881124</v>
+        <v>0.001493914661113131</v>
       </c>
       <c r="T5">
-        <v>0.001420266662881124</v>
+        <v>0.001493914661113132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H6">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>12.25851067877894</v>
+        <v>14.22378478508333</v>
       </c>
       <c r="R6">
-        <v>12.25851067877894</v>
+        <v>128.01406306575</v>
       </c>
       <c r="S6">
-        <v>0.008419491892754351</v>
+        <v>0.008659734956315676</v>
       </c>
       <c r="T6">
-        <v>0.008419491892754351</v>
+        <v>0.008659734956315676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H7">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>79.19125827118536</v>
+        <v>110.8070663426737</v>
       </c>
       <c r="R7">
-        <v>79.19125827118536</v>
+        <v>997.2635970840631</v>
       </c>
       <c r="S7">
-        <v>0.05439079627719307</v>
+        <v>0.0674616383974499</v>
       </c>
       <c r="T7">
-        <v>0.05439079627719307</v>
+        <v>0.0674616383974499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H8">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>2.949996533452241</v>
+        <v>3.916958356986</v>
       </c>
       <c r="R8">
-        <v>2.949996533452241</v>
+        <v>35.252625212874</v>
       </c>
       <c r="S8">
-        <v>0.002026141066226865</v>
+        <v>0.00238472542427643</v>
       </c>
       <c r="T8">
-        <v>0.002026141066226865</v>
+        <v>0.00238472542427643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H9">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>246.7522031325363</v>
+        <v>257.4344855626242</v>
       </c>
       <c r="R9">
-        <v>246.7522031325363</v>
+        <v>2316.910370063617</v>
       </c>
       <c r="S9">
-        <v>0.1694763930328121</v>
+        <v>0.1567314499812814</v>
       </c>
       <c r="T9">
-        <v>0.1694763930328121</v>
+        <v>0.1567314499812814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H10">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>0.9100742598109249</v>
+        <v>1.306708694512555</v>
       </c>
       <c r="R10">
-        <v>0.9100742598109249</v>
+        <v>11.760378250613</v>
       </c>
       <c r="S10">
-        <v>0.0006250647450629573</v>
+        <v>0.0007955513339500871</v>
       </c>
       <c r="T10">
-        <v>0.0006250647450629573</v>
+        <v>0.000795551333950087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H11">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>2.260329455068729</v>
+        <v>2.456630810072</v>
       </c>
       <c r="R11">
-        <v>2.260329455068729</v>
+        <v>22.109677290648</v>
       </c>
       <c r="S11">
-        <v>0.001552458208063549</v>
+        <v>0.001495647749328482</v>
       </c>
       <c r="T11">
-        <v>0.001552458208063549</v>
+        <v>0.001495647749328482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H12">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>13.39947350682687</v>
+        <v>14.24028577702778</v>
       </c>
       <c r="R12">
-        <v>13.39947350682687</v>
+        <v>128.16257199325</v>
       </c>
       <c r="S12">
-        <v>0.009203137437666542</v>
+        <v>0.008669781102184323</v>
       </c>
       <c r="T12">
-        <v>0.009203137437666542</v>
+        <v>0.008669781102184321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H13">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>86.56199721014805</v>
+        <v>110.9356134584192</v>
       </c>
       <c r="R13">
-        <v>86.56199721014805</v>
+        <v>998.420521125773</v>
       </c>
       <c r="S13">
-        <v>0.0594532282778141</v>
+        <v>0.06753990054557539</v>
       </c>
       <c r="T13">
-        <v>0.0594532282778141</v>
+        <v>0.06753990054557538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H14">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>0.9434645632735681</v>
+        <v>1.239336660984</v>
       </c>
       <c r="R14">
-        <v>0.9434645632735681</v>
+        <v>11.154029948856</v>
       </c>
       <c r="S14">
-        <v>0.0006479981499982732</v>
+        <v>0.0007545338436941078</v>
       </c>
       <c r="T14">
-        <v>0.0006479981499982732</v>
+        <v>0.0007545338436941078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H15">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>78.91601123096645</v>
+        <v>81.45299660648313</v>
       </c>
       <c r="R15">
-        <v>78.91601123096645</v>
+        <v>733.0769694583481</v>
       </c>
       <c r="S15">
-        <v>0.05420174882401104</v>
+        <v>0.04959027239708701</v>
       </c>
       <c r="T15">
-        <v>0.05420174882401104</v>
+        <v>0.04959027239708701</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H16">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>0.2910589230673518</v>
+        <v>0.4134463128635556</v>
       </c>
       <c r="R16">
-        <v>0.2910589230673518</v>
+        <v>3.721016815772</v>
       </c>
       <c r="S16">
-        <v>0.0001999075015957386</v>
+        <v>0.000251714683690877</v>
       </c>
       <c r="T16">
-        <v>0.0001999075015957386</v>
+        <v>0.000251714683690877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H17">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>0.7228960163167345</v>
+        <v>0.7772849103680001</v>
       </c>
       <c r="R17">
-        <v>0.7228960163167345</v>
+        <v>6.995564193312001</v>
       </c>
       <c r="S17">
-        <v>0.0004965054326884533</v>
+        <v>0.0004732271621818575</v>
       </c>
       <c r="T17">
-        <v>0.0004965054326884533</v>
+        <v>0.0004732271621818575</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H18">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>4.285404500262214</v>
+        <v>4.505666544777777</v>
       </c>
       <c r="R18">
-        <v>4.285404500262214</v>
+        <v>40.550998903</v>
       </c>
       <c r="S18">
-        <v>0.002943337032743419</v>
+        <v>0.002743143169617748</v>
       </c>
       <c r="T18">
-        <v>0.002943337032743419</v>
+        <v>0.002743143169617748</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H19">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>27.68416029234711</v>
+        <v>35.10034068209023</v>
       </c>
       <c r="R19">
-        <v>27.68416029234711</v>
+        <v>315.9030661388121</v>
       </c>
       <c r="S19">
-        <v>0.01901426439531772</v>
+        <v>0.02136981484014384</v>
       </c>
       <c r="T19">
-        <v>0.01901426439531772</v>
+        <v>0.02136981484014384</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H20">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>1.146158253573594</v>
+        <v>1.527958667844</v>
       </c>
       <c r="R20">
-        <v>1.146158253573594</v>
+        <v>13.751628010596</v>
       </c>
       <c r="S20">
-        <v>0.0007872139101270981</v>
+        <v>0.0009302529029833531</v>
       </c>
       <c r="T20">
-        <v>0.0007872139101270981</v>
+        <v>0.0009302529029833531</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H21">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>95.87030730400794</v>
+        <v>100.422117819002</v>
       </c>
       <c r="R21">
-        <v>95.87030730400794</v>
+        <v>903.7990603710182</v>
       </c>
       <c r="S21">
-        <v>0.06584643895602214</v>
+        <v>0.06113906651459282</v>
       </c>
       <c r="T21">
-        <v>0.06584643895602214</v>
+        <v>0.06113906651459281</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H22">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>0.3535899491469887</v>
+        <v>0.5097314533780001</v>
       </c>
       <c r="R22">
-        <v>0.3535899491469887</v>
+        <v>4.587583080402</v>
       </c>
       <c r="S22">
-        <v>0.0002428555791329649</v>
+        <v>0.000310335072686155</v>
       </c>
       <c r="T22">
-        <v>0.0002428555791329649</v>
+        <v>0.000310335072686155</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H23">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>0.8782028152727219</v>
+        <v>0.9583023350880002</v>
       </c>
       <c r="R23">
-        <v>0.8782028152727219</v>
+        <v>8.624721015792002</v>
       </c>
       <c r="S23">
-        <v>0.0006031745354011667</v>
+        <v>0.0005834343218257484</v>
       </c>
       <c r="T23">
-        <v>0.0006031745354011667</v>
+        <v>0.0005834343218257484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H24">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>5.206079728987914</v>
+        <v>5.5549653845</v>
       </c>
       <c r="R24">
-        <v>5.206079728987914</v>
+        <v>49.9946884605</v>
       </c>
       <c r="S24">
-        <v>0.003575682823128448</v>
+        <v>0.003381978049311182</v>
       </c>
       <c r="T24">
-        <v>0.003575682823128448</v>
+        <v>0.003381978049311182</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H25">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N25">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O25">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P25">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q25">
-        <v>33.63181835068818</v>
+        <v>43.274657708338</v>
       </c>
       <c r="R25">
-        <v>33.63181835068818</v>
+        <v>389.471919375042</v>
       </c>
       <c r="S25">
-        <v>0.02309928419219779</v>
+        <v>0.02634650845339648</v>
       </c>
       <c r="T25">
-        <v>0.02309928419219779</v>
+        <v>0.02634650845339648</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H26">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N26">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q26">
-        <v>1.336403094112308</v>
+        <v>1.727452209276</v>
       </c>
       <c r="R26">
-        <v>1.336403094112308</v>
+        <v>15.547069883484</v>
       </c>
       <c r="S26">
-        <v>0.0009178794480971316</v>
+        <v>0.00105170870538762</v>
       </c>
       <c r="T26">
-        <v>0.0009178794480971316</v>
+        <v>0.00105170870538762</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H27">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q27">
-        <v>111.7833204229048</v>
+        <v>113.5334436312914</v>
       </c>
       <c r="R27">
-        <v>111.7833204229048</v>
+        <v>1021.800992681622</v>
       </c>
       <c r="S27">
-        <v>0.07677594650017934</v>
+        <v>0.0691215133932462</v>
       </c>
       <c r="T27">
-        <v>0.07677594650017934</v>
+        <v>0.0691215133932462</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H28">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N28">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q28">
-        <v>0.4122805036858797</v>
+        <v>0.5762830787286667</v>
       </c>
       <c r="R28">
-        <v>0.4122805036858797</v>
+        <v>5.186547708558001</v>
       </c>
       <c r="S28">
-        <v>0.0002831659121799376</v>
+        <v>0.0003508530814409827</v>
       </c>
       <c r="T28">
-        <v>0.0002831659121799376</v>
+        <v>0.0003508530814409827</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H29">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N29">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q29">
-        <v>1.023971127834528</v>
+        <v>1.083420331152</v>
       </c>
       <c r="R29">
-        <v>1.023971127834528</v>
+        <v>9.750782980368001</v>
       </c>
       <c r="S29">
-        <v>0.0007032923358415753</v>
+        <v>0.0006596087508227237</v>
       </c>
       <c r="T29">
-        <v>0.0007032923358415753</v>
+        <v>0.0006596087508227237</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H30">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N30">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q30">
-        <v>6.070209795481865</v>
+        <v>6.280233508833334</v>
       </c>
       <c r="R30">
-        <v>6.070209795481865</v>
+        <v>56.5221015795</v>
       </c>
       <c r="S30">
-        <v>0.004169191796590126</v>
+        <v>0.003823536314139363</v>
       </c>
       <c r="T30">
-        <v>0.004169191796590126</v>
+        <v>0.003823536314139362</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H31">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N31">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O31">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P31">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q31">
-        <v>39.2141887600139</v>
+        <v>48.92468928456867</v>
       </c>
       <c r="R31">
-        <v>39.2141887600139</v>
+        <v>440.322203561118</v>
       </c>
       <c r="S31">
-        <v>0.02693341409878049</v>
+        <v>0.02978636477042141</v>
       </c>
       <c r="T31">
-        <v>0.02693341409878049</v>
+        <v>0.02978636477042141</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H32">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N32">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q32">
-        <v>3.09831820805905</v>
+        <v>4.160206181448001</v>
       </c>
       <c r="R32">
-        <v>3.09831820805905</v>
+        <v>37.44185563303201</v>
       </c>
       <c r="S32">
-        <v>0.002128012587947167</v>
+        <v>0.00253281974096986</v>
       </c>
       <c r="T32">
-        <v>0.002128012587947167</v>
+        <v>0.002532819740969861</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H33">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q33">
-        <v>259.1585566880462</v>
+        <v>273.4214767040841</v>
       </c>
       <c r="R33">
-        <v>259.1585566880462</v>
+        <v>2460.793290336757</v>
       </c>
       <c r="S33">
-        <v>0.1779974275953618</v>
+        <v>0.1664646615087222</v>
       </c>
       <c r="T33">
-        <v>0.1779974275953618</v>
+        <v>0.1664646615087222</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H34">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N34">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q34">
-        <v>0.9558315129808952</v>
+        <v>1.387856875876</v>
       </c>
       <c r="R34">
-        <v>0.9558315129808952</v>
+        <v>12.490711882884</v>
       </c>
       <c r="S34">
-        <v>0.0006564921208832676</v>
+        <v>0.0008449560285101045</v>
       </c>
       <c r="T34">
-        <v>0.0006564921208832676</v>
+        <v>0.0008449560285101047</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H35">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N35">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q35">
-        <v>2.37397563944121</v>
+        <v>2.609190537696001</v>
       </c>
       <c r="R35">
-        <v>2.37397563944121</v>
+        <v>23.48271483926401</v>
       </c>
       <c r="S35">
-        <v>0.001630513622219444</v>
+        <v>0.001588529273212128</v>
       </c>
       <c r="T35">
-        <v>0.001630513622219444</v>
+        <v>0.001588529273212128</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H36">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N36">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q36">
-        <v>14.0731801796467</v>
+        <v>15.124624649</v>
       </c>
       <c r="R36">
-        <v>14.0731801796467</v>
+        <v>136.121621841</v>
       </c>
       <c r="S36">
-        <v>0.009665858237814025</v>
+        <v>0.009208184934818084</v>
       </c>
       <c r="T36">
-        <v>0.009665858237814025</v>
+        <v>0.009208184934818085</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H37">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N37">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O37">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P37">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q37">
-        <v>90.91421262393845</v>
+        <v>117.824848464196</v>
       </c>
       <c r="R37">
-        <v>90.91421262393845</v>
+        <v>1060.423636177764</v>
       </c>
       <c r="S37">
-        <v>0.06244245293586031</v>
+        <v>0.07173420959223392</v>
       </c>
       <c r="T37">
-        <v>0.06244245293586031</v>
+        <v>0.07173420959223392</v>
       </c>
     </row>
   </sheetData>
